--- a/收发存汇总表模板.xlsx
+++ b/收发存汇总表模板.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rouic\IdeaProjects\corporate_group_backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baoya\IdeaProjects\corporate_group_backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B94955E-8885-4EE7-B287-E54D5CB232F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647CD96-F2BF-4F64-B66B-79F28416D81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33120" yWindow="3620" windowWidth="28800" windowHeight="15370" xr2:uid="{0B4D73D7-8BC7-4BA1-89BE-2B920EA30240}"/>
+    <workbookView xWindow="3610" yWindow="2450" windowWidth="28800" windowHeight="15370" xr2:uid="{0B4D73D7-8BC7-4BA1-89BE-2B920EA30240}"/>
   </bookViews>
   <sheets>
-    <sheet name="9月份" sheetId="18" r:id="rId1"/>
+    <sheet name="收发存汇总表" sheetId="18" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
